--- a/classification/droptc/message/neo-bert/unfreeze/99511865/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/99511865/prediction.xlsx
@@ -856,12 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Normal', 'RegulationViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['CommunicationIssue']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2233,12 +2233,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2638,12 +2638,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/neo-bert/unfreeze/99511865/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/99511865/prediction.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2584,12 +2584,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2935,12 +2935,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'SoftwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
